--- a/FigureData/DfU_step_up.xlsx
+++ b/FigureData/DfU_step_up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Downloads/Github/yeast-polarity-negative-feedback/FigureData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94715FA-CC07-BB4F-AE23-945DA06A3B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8E296C-9BEF-1646-9BF2-1FAECDB10545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{9238F8C1-9C45-654A-9827-5F80FBA17FAD}"/>
+    <workbookView xWindow="5560" yWindow="1820" windowWidth="28040" windowHeight="17440" xr2:uid="{9238F8C1-9C45-654A-9827-5F80FBA17FAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,22 +468,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>0.31223333333333331</v>
+        <v>0.31153333333333338</v>
       </c>
       <c r="C2" s="3">
-        <v>1.3599999999999999E-2</v>
+        <v>6.0384876693865362E-3</v>
       </c>
       <c r="D2" s="3">
-        <f>C2/SQRT(3)</f>
-        <v>7.8519636609789105E-3</v>
+        <v>3.4863224814185526E-3</v>
       </c>
       <c r="E2" s="3">
-        <f>B2-D2</f>
-        <v>0.30438136967235441</v>
+        <v>0.30804701085191483</v>
       </c>
       <c r="F2" s="3">
-        <f>B2+D2</f>
-        <v>0.32008529699431221</v>
+        <v>0.31501965581475194</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -491,22 +488,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>0.32216666666666666</v>
+        <v>0.33163333333333334</v>
       </c>
       <c r="C3" s="3">
-        <v>1.5947831618540939E-3</v>
+        <v>5.2080066564217679E-3</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D7" si="0">C3/SQRT(3)</f>
-        <v>9.2074848779554375E-4</v>
+        <v>3.0068440450264707E-3</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E7" si="1">B3-D3</f>
-        <v>0.3212459181788711</v>
+        <v>0.32862648928830684</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F7" si="2">B3+D3</f>
-        <v>0.32308741515446221</v>
+        <v>0.33464017737835983</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -517,19 +511,16 @@
         <v>0.3589</v>
       </c>
       <c r="C4" s="3">
-        <v>1.11E-2</v>
+        <v>1.1096395811253308E-2</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>6.4085879880048467E-3</v>
+        <v>6.4065071086617338E-3</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.35249141201199513</v>
+        <v>0.35249349289133824</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="2"/>
-        <v>0.36530858798800486</v>
+        <v>0.36530650710866175</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -537,22 +528,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0.39979999999999999</v>
+        <v>0.39983333333333332</v>
       </c>
       <c r="C5" s="3">
-        <v>1.52E-2</v>
+        <v>1.5207344716725966E-2</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>8.7757240916823114E-3</v>
+        <v>8.7799645658611699E-3</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.39102427590831768</v>
+        <v>0.39105336876747215</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.4085757240916823</v>
+        <v>0.40861329789919448</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -560,22 +548,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>0.44330000000000003</v>
+        <v>0.44333333333333336</v>
       </c>
       <c r="C6" s="3">
-        <v>1.5494192460402723E-2</v>
+        <v>1.5700106156753643E-2</v>
       </c>
       <c r="D6" s="3">
-        <f>C6/SQRT(3)</f>
-        <v>8.9455761878893831E-3</v>
+        <v>9.0644605159074174E-3</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="1"/>
-        <v>0.43435442381211065</v>
+        <v>0.43426887281742593</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.45224557618788941</v>
+        <v>0.45239779384924078</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -583,22 +568,19 @@
         <v>50</v>
       </c>
       <c r="B7" s="3">
-        <v>0.45079999999999998</v>
+        <v>0.44773333333333332</v>
       </c>
       <c r="C7" s="3">
-        <v>1.5800000000000002E-2</v>
+        <v>1.1559555931493807E-2</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>9.1221342531960879E-3</v>
+        <v>6.6739127287604848E-3</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.4416778657468039</v>
+        <v>0.44105942060457282</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.45992213425319606</v>
+        <v>0.45440724606209382</v>
       </c>
     </row>
   </sheetData>
